--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999943447719891</v>
+        <v>0.999985898761387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989772867902924</v>
+        <v>0.9990033688071255</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999874317477301</v>
+        <v>0.9999558515400574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999870056079829</v>
+        <v>0.9998259555526996</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999874609954941</v>
+        <v>0.9999466065893439</v>
       </c>
       <c r="G2" t="n">
-        <v>5.278907112379796e-06</v>
+        <v>1.316288727244084e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009546578893404623</v>
+        <v>0.0009303114714950277</v>
       </c>
       <c r="I2" t="n">
-        <v>1.449347416437993e-05</v>
+        <v>5.449256419446126e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>5.461811224038029e-06</v>
+        <v>2.777045072722804e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>9.976086240340067e-06</v>
+        <v>4.113400950762562e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001972175832128843</v>
+        <v>0.000241978033155076</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002297587237164194</v>
+        <v>0.003628069358824448</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000006463117727</v>
+        <v>1.000016115701272</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002395400282511526</v>
+        <v>0.003782523782568534</v>
       </c>
       <c r="P2" t="n">
-        <v>114.3035829359249</v>
+        <v>112.4762185170587</v>
       </c>
       <c r="Q2" t="n">
-        <v>169.1529950549939</v>
+        <v>167.3256306361277</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999994144345756</v>
+        <v>0.9999858960000666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989758970391236</v>
+        <v>0.9990033667978326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999839389800541</v>
+        <v>0.9999558414092662</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999987914237188</v>
+        <v>0.9998259313288534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999851680409575</v>
+        <v>0.9999465961300577</v>
       </c>
       <c r="G3" t="n">
-        <v>5.46599620328294e-06</v>
+        <v>1.316546484382507e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009559551610535694</v>
+        <v>0.0009303133470817355</v>
       </c>
       <c r="I3" t="n">
-        <v>1.852126872059123e-05</v>
+        <v>5.450506865760779e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>5.079895611200523e-06</v>
+        <v>2.777431587281436e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.180037079113576e-05</v>
+        <v>4.114206728801469e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001996637072565769</v>
+        <v>0.0002419801105312372</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002337947006089518</v>
+        <v>0.00362842456774632</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000006692176279</v>
+        <v>1.000016118857067</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00243747825035624</v>
+        <v>0.003782894113469594</v>
       </c>
       <c r="P3" t="n">
-        <v>114.2339283301295</v>
+        <v>112.4758269131511</v>
       </c>
       <c r="Q3" t="n">
-        <v>169.0833404491985</v>
+        <v>167.3252390322201</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999937275559251</v>
+        <v>0.9999858860472723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989745349206223</v>
+        <v>0.9990033654566135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999800188801152</v>
+        <v>0.9999558092845343</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999881435114886</v>
+        <v>0.9998257860531841</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999823888218822</v>
+        <v>0.9999465584339886</v>
       </c>
       <c r="G4" t="n">
-        <v>5.855051215486704e-06</v>
+        <v>1.317475534032508e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000957226638884425</v>
+        <v>0.000930314599050909</v>
       </c>
       <c r="I4" t="n">
-        <v>2.304185487413214e-05</v>
+        <v>5.454472030151684e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>4.983526889500164e-06</v>
+        <v>2.77974959907668e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.401152951299593e-05</v>
+        <v>4.117110814614182e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002030464614243723</v>
+        <v>0.0002420057296912196</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002419721309466589</v>
+        <v>0.003629704580310232</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000007168507514</v>
+        <v>1.000016130231689</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002522733855124217</v>
+        <v>0.003784228618818343</v>
       </c>
       <c r="P4" t="n">
-        <v>114.0964116272903</v>
+        <v>112.4744160674071</v>
       </c>
       <c r="Q4" t="n">
-        <v>168.9458237463593</v>
+        <v>167.3238281864762</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999993141479957</v>
+        <v>0.999985885804922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989729916312752</v>
+        <v>0.9990033653742276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999757723715356</v>
+        <v>0.9999558092845343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999878548191659</v>
+        <v>0.9998257755984061</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999792340903227</v>
+        <v>0.9999465575156719</v>
       </c>
       <c r="G5" t="n">
-        <v>6.40212740586463e-06</v>
+        <v>1.317498156377564e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009586672317474288</v>
+        <v>0.000930314675954454</v>
       </c>
       <c r="I5" t="n">
-        <v>2.793884938599892e-05</v>
+        <v>5.454472030151684e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>5.104870232544854e-06</v>
+        <v>2.779916415024947e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.652144759199691e-05</v>
+        <v>4.117181561263219e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002066575604150434</v>
+        <v>0.0002420033829684036</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002530242558701563</v>
+        <v>0.003629735742967473</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000007838308621</v>
+        <v>1.000016130508661</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002637960222749649</v>
+        <v>0.003784261108134418</v>
       </c>
       <c r="P5" t="n">
-        <v>113.9177604313346</v>
+        <v>112.4743817257435</v>
       </c>
       <c r="Q5" t="n">
-        <v>168.7671725504037</v>
+        <v>167.3237938448125</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999924030254088</v>
+        <v>0.9999858823973056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989712924711821</v>
+        <v>0.9990033639060557</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999971216505058</v>
+        <v>0.9999557978989633</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999870657287897</v>
+        <v>0.999825740649643</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999757247954422</v>
+        <v>0.9999465446113308</v>
       </c>
       <c r="G6" t="n">
-        <v>7.09144231226173e-06</v>
+        <v>1.317816242415697e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009602533231097588</v>
+        <v>0.0009303160464285799</v>
       </c>
       <c r="I6" t="n">
-        <v>3.319258965705028e-05</v>
+        <v>5.455877354285086e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>5.436541207820437e-06</v>
+        <v>2.780474055857323e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.931345778347297e-05</v>
+        <v>4.118175705071205e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002108508526674631</v>
+        <v>0.0002420116801522017</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002662976213236185</v>
+        <v>0.003630173883460263</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000008682256676</v>
+        <v>1.000016134403079</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002776344623754354</v>
+        <v>0.003784717901175062</v>
       </c>
       <c r="P6" t="n">
-        <v>113.7132436180344</v>
+        <v>112.4738989202918</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5626557371035</v>
+        <v>167.3233110393608</v>
       </c>
     </row>
     <row r="7">
@@ -797,1097 +797,1097 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999915916538621</v>
+        <v>0.9999858823973268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989696935062575</v>
+        <v>0.9990033629026828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999665944137696</v>
+        <v>0.9999557978989633</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999860109994996</v>
+        <v>0.999825740649643</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99997209718583</v>
+        <v>0.9999465446113308</v>
       </c>
       <c r="G7" t="n">
-        <v>7.848822036044391e-06</v>
+        <v>1.317816240435081e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009617458866804087</v>
+        <v>0.0009303169830331509</v>
       </c>
       <c r="I7" t="n">
-        <v>3.852269914535649e-05</v>
+        <v>5.455877354285086e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>5.879865702509665e-06</v>
+        <v>2.780474055857323e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>2.219959968727506e-05</v>
+        <v>4.118175705071205e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002147016138075035</v>
+        <v>0.0002420092504626258</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002801574920655236</v>
+        <v>0.003630173880732273</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000009609538443</v>
+        <v>1.000016134403055</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002920843765087112</v>
+        <v>0.003784717898330935</v>
       </c>
       <c r="P7" t="n">
-        <v>113.5102941930651</v>
+        <v>112.4738989232977</v>
       </c>
       <c r="Q7" t="n">
-        <v>168.3597063121342</v>
+        <v>167.3233110423667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_6</t>
+          <t>model_26_9_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999906876766586</v>
+        <v>0.999985880941631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.998967826854203</v>
+        <v>0.9990033616165568</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999617882972833</v>
+        <v>0.9999557923698968</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999846570896364</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999682551102229</v>
+        <v>0.9999465390992689</v>
       </c>
       <c r="G8" t="n">
-        <v>8.69264507549778e-06</v>
+        <v>1.317952123243042e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009634883244367146</v>
+        <v>0.0009303181835752686</v>
       </c>
       <c r="I8" t="n">
-        <v>4.406502306024191e-05</v>
+        <v>5.456559808451987e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>6.4489419684636e-06</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.52563716647293e-05</v>
+        <v>4.118600351497472e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002188443050172502</v>
+        <v>0.000242018085202668</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002948329200665655</v>
+        <v>0.003630361033345088</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000010642655247</v>
+        <v>1.000016136066707</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003073845678620813</v>
+        <v>0.003784913018417937</v>
       </c>
       <c r="P8" t="n">
-        <v>113.3060665669428</v>
+        <v>112.4736927097169</v>
       </c>
       <c r="Q8" t="n">
-        <v>168.1554786860118</v>
+        <v>167.3231048287859</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_7</t>
+          <t>model_26_9_22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999989785091715</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989661837132388</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999571547100974</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999832177002184</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999645156155355</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G9" t="n">
-        <v>9.535168501378309e-06</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009650221244013445</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I9" t="n">
-        <v>4.940838940324438e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>7.053947055935536e-06</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.823152981859784e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002223458634281133</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003087906815527034</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000011674180897</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003219365401512336</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P9" t="n">
-        <v>113.1210472943756</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.9704594134446</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_8</t>
+          <t>model_26_9_21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999889267718003</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989646807045659</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999528356936466</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999818151568338</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999610154725342</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G10" t="n">
-        <v>1.033637246587527e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000966425117022983</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I10" t="n">
-        <v>5.438899863994261e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>7.643464994912068e-06</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.101625873529326e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002252347467919351</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0032150229339579</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000012655117942</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003351893116271445</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P10" t="n">
-        <v>112.9596831515763</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q10" t="n">
-        <v>167.8090952706453</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_9</t>
+          <t>model_26_9_20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999880649541961</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989630993694814</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999486197005726</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999803206315862</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999575686087516</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G11" t="n">
-        <v>1.114084136992648e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009679012239118404</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I11" t="n">
-        <v>5.925080323962903e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>8.271644809848849e-06</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.375859847511518e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002283461797530904</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003337789893017007</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000013640052347</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003479886518940337</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P11" t="n">
-        <v>112.8097855987875</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q11" t="n">
-        <v>167.6591977178566</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_10</t>
+          <t>model_26_9_19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999872801951095</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989616608060975</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999448105929722</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999789935160698</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999544542107786</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G12" t="n">
-        <v>1.187337953036024e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009692440596850282</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I12" t="n">
-        <v>6.364339509791271e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>8.829458858663966e-06</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.623642697828834e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002313398854799173</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003445777057553236</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000014536919875</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003592470920635121</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P12" t="n">
-        <v>112.6824233559128</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.5318354749818</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_11</t>
+          <t>model_26_9_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999865214790147</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989603117558378</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999411890686785</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999776576142483</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999514777257404</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G13" t="n">
-        <v>1.25816077010943e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009705033388859931</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I13" t="n">
-        <v>6.781966938494793e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>9.39096597288579e-06</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.860453135365937e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002345670713985498</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00354705620213358</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000015404023983</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003698061728076982</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P13" t="n">
-        <v>112.5665490333566</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q13" t="n">
-        <v>167.4159611524256</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_12</t>
+          <t>model_26_9_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999858019045014</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989590938139833</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999378006700054</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999763592292039</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999486787315653</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G14" t="n">
-        <v>1.325329892360666e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009716402341456473</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I14" t="n">
-        <v>7.172710755321816e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>9.936704011214196e-06</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>4.083142323041294e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002375124361675522</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003640508058445504</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000016226394856</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003795492023384116</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P14" t="n">
-        <v>112.4625281223095</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q14" t="n">
-        <v>167.3119402413785</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_13</t>
+          <t>model_26_9_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999852212789898</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989581214129132</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999350449708395</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999975358488791</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999464170723629</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G15" t="n">
-        <v>1.379528735217172e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009725479278611501</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I15" t="n">
-        <v>7.490492844724634e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.035733586623329e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>4.263080907796613e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002394665711206739</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003714200768963859</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000016889966869</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003872321985154178</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P15" t="n">
-        <v>112.3823670406873</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.2317791597564</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_14</t>
+          <t>model_26_9_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999846570875731</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989570891755953</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999324041088679</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999743596251485</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999442400951036</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G16" t="n">
-        <v>1.432193527452422e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009735114760873533</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I16" t="n">
-        <v>7.795032123031375e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>1.077717887600926e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.436282160502023e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002414327031242771</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003784433283138206</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000017534757059</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003945544442858273</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P16" t="n">
-        <v>112.307436521388</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.156848640457</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_15</t>
+          <t>model_26_9_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999841435448171</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989563004201292</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999300138484467</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999734483326037</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999422663566082</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G17" t="n">
-        <v>1.480130489529243e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000974247744692713</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I17" t="n">
-        <v>8.070672497805966e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.116021394549033e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>4.593313649224643e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002428179535559479</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003847246404286114</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000018121663066</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004011031648614534</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P17" t="n">
-        <v>112.24159042496</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q17" t="n">
-        <v>167.091002544029</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_16</t>
+          <t>model_26_9_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999836702040452</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989554861573587</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999278227266231</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999726117520714</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999404563108913</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G18" t="n">
-        <v>1.524314772863427e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009750078232468866</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I18" t="n">
-        <v>8.323348580847424e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.151184601378904e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>4.737321669648048e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002441185249650703</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003904247395931035</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000018662623948</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004070459290482099</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P18" t="n">
-        <v>112.1827609703188</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.0321730893878</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_17</t>
+          <t>model_26_9_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999832575678822</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989547592963027</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999259112916067</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999971883057419</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999388827079366</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G19" t="n">
-        <v>1.562832547412565e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009756863161371757</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I19" t="n">
-        <v>8.543771702790304e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>1.181813141952518e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>4.862518201612775e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002452124156712155</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003953267695732943</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000019134208135</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004121566485932583</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P19" t="n">
-        <v>112.1328511092859</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q19" t="n">
-        <v>166.9822632283549</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_18</t>
+          <t>model_26_9_11</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999828849347473</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989541237343872</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999242022641789</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999712247000173</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999374663181214</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G20" t="n">
-        <v>1.597616214883166e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009762795852873323</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I20" t="n">
-        <v>8.740853559032085e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>1.209485262673276e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>4.975206788176512e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002460621554625989</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003997019157926524</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000019560074574</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004167180538449758</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P20" t="n">
-        <v>112.088825624752</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.938237743821</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_19</t>
+          <t>model_26_9_10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999825425174246</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998953476567101</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999226343926627</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999706191965054</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999361705610716</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G21" t="n">
-        <v>1.629579368918909e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009768836875416681</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I21" t="n">
-        <v>8.921657578751688e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>1.234935825295528e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>5.078297779719806e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002469615750925832</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00403680488619268</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000019951408658</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004208660027536015</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P21" t="n">
-        <v>112.0492070786634</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.8986191977324</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_20</t>
+          <t>model_26_9_9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999822399466345</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989529338130319</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999212541147254</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999700892418146</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999350283003486</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G22" t="n">
-        <v>1.657823024051189e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009773903246411159</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I22" t="n">
-        <v>9.080828656749272e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.257210914998207e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>5.169176537095837e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002476856168561914</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004071637292356957</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000020297203846</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004244975321343727</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P22" t="n">
-        <v>112.0148403091496</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q22" t="n">
-        <v>166.8642524282187</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_21</t>
+          <t>model_26_9_8</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999819817946953</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989524733308952</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999200727793566</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999696316281734</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999340548714989</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G23" t="n">
-        <v>1.681920374415513e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009778201645027878</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I23" t="n">
-        <v>9.217058048713437e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>1.276445361048181e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>5.246622957578861e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002481842764945497</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004101122254231777</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000020592234634</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004275715519087842</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P23" t="n">
-        <v>111.9859784887287</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.8353906077977</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_22</t>
+          <t>model_26_9_14</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999817426092475</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989519998276039</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D24" t="n">
-        <v>0.99991899401158</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999692059701568</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999331558130411</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G24" t="n">
-        <v>1.704247286061747e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009782621590408559</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I24" t="n">
-        <v>9.341459537189404e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>1.294336646224015e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>5.318152437492881e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002486911853200096</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004128253003464961</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000020865589431</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004304001280484277</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P24" t="n">
-        <v>111.9596038523277</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.8090159713968</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_23</t>
+          <t>model_26_9_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999815290179861</v>
+        <v>0.9999858800291727</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989515939930439</v>
+        <v>0.999003361384025</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999180201638573</v>
+        <v>0.9999557894409538</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999688377030926</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999323547338725</v>
+        <v>0.9999465356440689</v>
       </c>
       <c r="G25" t="n">
-        <v>1.724185092756549e-05</v>
+        <v>1.318037297224448e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009786409877885038</v>
+        <v>0.0009303184006334584</v>
       </c>
       <c r="I25" t="n">
-        <v>9.453761840692669e-05</v>
+        <v>5.456921328700366e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>1.309815671191231e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>5.38188664276733e-05</v>
+        <v>4.118866538334329e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002491268971457353</v>
+        <v>0.0002420185220854121</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004152330782532322</v>
+        <v>0.00363047833931625</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00002110969373</v>
+        <v>1.000016137109517</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00432910410045441</v>
+        <v>0.003785035318347149</v>
       </c>
       <c r="P25" t="n">
-        <v>111.9363418722077</v>
+        <v>112.4735634618819</v>
       </c>
       <c r="Q25" t="n">
-        <v>166.7857539912767</v>
+        <v>167.3229755809509</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_24</t>
+          <t>model_26_9_6</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999813324109985</v>
+        <v>0.9999858805644591</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989512647163099</v>
+        <v>0.9990033608602414</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999171277203688</v>
+        <v>0.9999557923698968</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999968498287631</v>
+        <v>0.9998257194856233</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999316193998798</v>
+        <v>0.9999465376713198</v>
       </c>
       <c r="G26" t="n">
-        <v>1.742537492041307e-05</v>
+        <v>1.317987330579078e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009789483531661564</v>
+        <v>0.0009303188895624304</v>
       </c>
       <c r="I26" t="n">
-        <v>9.556676759693698e-05</v>
+        <v>5.456559808451987e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.324082003741389e-05</v>
+        <v>2.780811747968292e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>5.440390133399513e-05</v>
+        <v>4.118710359964228e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002494828976341882</v>
+        <v>0.0002420222812432472</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004174371200601723</v>
+        <v>0.003630409523151731</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00002133438743</v>
+        <v>1.000016136497761</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00435208282475098</v>
+        <v>0.003784963572536037</v>
       </c>
       <c r="P26" t="n">
-        <v>111.9151661706262</v>
+        <v>112.4736392830937</v>
       </c>
       <c r="Q26" t="n">
-        <v>166.7645782896953</v>
+        <v>167.3230514021627</v>
       </c>
     </row>
   </sheetData>
